--- a/CS/Dashboard_GridHyperlinkColumn/Data/GDPByCountry.xlsx
+++ b/CS/Dashboard_GridHyperlinkColumn/Data/GDPByCountry.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gallery\WhatsNew18.1\CodeExamples\winforms-designer-how-to-create-the-grids-hyperlink-column-in-code-t568804-17.2.3-\CS\Dashboard_GridHyperlinkColumn\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -21,9 +27,6 @@
     <t>OfficialName</t>
   </si>
   <si>
-    <t>Uri</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -52,13 +55,16 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/France</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +101,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -108,11 +120,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -121,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -370,25 +390,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.71" customWidth="1"/>
-    <col min="2" max="2" width="28.57" customWidth="1"/>
-    <col min="3" max="3" width="41.57" customWidth="1"/>
-    <col min="4" max="4" width="26.57" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,64 +419,65 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>18624450</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>3479232</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>2466472</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
   </sheetData>
-  <pageSetup r:id="rId1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>